--- a/初始号工作流程.xlsx
+++ b/初始号工作流程.xlsx
@@ -11,19 +11,208 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>https://chat.deepseek.com/a/chat/s/974daef5-ba88-4728-a5f1-cbce7809c92b</t>
+  </si>
+  <si>
+    <t>游戏初始号自动化注册与管理系统技术文档</t>
+  </si>
+  <si>
+    <t>版本：1.0</t>
+  </si>
+  <si>
+    <t>1. 项目概述</t>
+  </si>
+  <si>
+    <t>1.1 目标
+开发一套自动化系统，实现以下功能：</t>
+  </si>
+  <si>
+    <r>
+      <t>1批量注册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> TapTap </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号（通过邮箱注册）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2自动登录游戏（模拟操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>截图）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3数据存储与管理（本地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库）。</t>
+    </r>
+  </si>
+  <si>
+    <t>4异常处理与日志记录（提高稳定性）。</t>
+  </si>
+  <si>
+    <t>1.2 适用场景</t>
+  </si>
+  <si>
+    <t>游戏初始号批量生产</t>
+  </si>
+  <si>
+    <t>账号交易业务</t>
+  </si>
+  <si>
+    <t>2. 系统架构</t>
+  </si>
+  <si>
+    <t>graph TD
+    A[注册模块] --&gt; B[账号存储]
+    B --&gt; C[登录模块]
+    C --&gt; D[数据采集]
+    D --&gt; E[数据存储]
+    E --&gt; F[管理系统]</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>技术方案</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>注册模块</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python + Selenium / Auto.js </t>
+  </si>
+  <si>
+    <t>批量生成 TapTap 账号</t>
+  </si>
+  <si>
+    <t>需处理验证码（可接入打码平台如「超级鹰」）。使用代理IP避免封禁（推荐Luminati）。</t>
+  </si>
+  <si>
+    <t>登录模块</t>
+  </si>
+  <si>
+    <t>按键精灵 / PyAutoGUI</t>
+  </si>
+  <si>
+    <t>模拟登录游戏并截图</t>
+  </si>
+  <si>
+    <t>数据采集</t>
+  </si>
+  <si>
+    <t>OpenCV + Tesseract OCR</t>
+  </si>
+  <si>
+    <t>从截图提取账号信息</t>
+  </si>
+  <si>
+    <t>使用OpenCV预处理图片（二值化、降噪）。定制OCR模型提高识别率（如EasyOCR）。</t>
+  </si>
+  <si>
+    <t>数据存储</t>
+  </si>
+  <si>
+    <t>MySQL / CSV</t>
+  </si>
+  <si>
+    <t>存储账号数据</t>
+  </si>
+  <si>
+    <t>管理系统</t>
+  </si>
+  <si>
+    <t>Flask / Django（可选）</t>
+  </si>
+  <si>
+    <t>可视化账号管理</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,6 +227,25 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.25"/>
+      <color rgb="FF404040"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -175,8 +383,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +399,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -370,12 +590,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,135 +728,159 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -941,14 +1194,221 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="18.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="2:2">
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="2:2">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="2:2">
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="2:2">
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" ht="27" customHeight="1" spans="2:6">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" ht="14.25" spans="2:6">
+      <c r="B25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="2:6">
+      <c r="B26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="2:4">
+      <c r="B27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="2:6">
+      <c r="B28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="2:4">
+      <c r="B29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="2:4">
+      <c r="B30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B19:F24"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://chat.deepseek.com/a/chat/s/974daef5-ba88-4728-a5f1-cbce7809c92b"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/初始号工作流程.xlsx
+++ b/初始号工作流程.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1批量注册</t>
     </r>
     <r>
@@ -71,6 +77,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>2自动登录游戏（模拟操作</t>
     </r>
     <r>
@@ -94,6 +106,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>3数据存储与管理（本地</t>
     </r>
     <r>
@@ -942,6 +960,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1197,7 +1222,7 @@
   <dimension ref="A2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
